--- a/ch_12/output/ch_12_output.xlsx
+++ b/ch_12/output/ch_12_output.xlsx
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>19.96539981087469</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0.6790123456790124</v>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>22.23008938919714</v>
+        <v>22.2</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0.5061728395061729</v>
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>31.59771907280509</v>
+        <v>31.6</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0.8827160493827161</v>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>38.44501401309491</v>
+        <v>38.4</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>0.8271604938271605</v>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>17.49260737401835</v>
+        <v>17.5</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0.1234567901234568</v>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>15.37225899586734</v>
+        <v>15.4</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>0.08641975308641975</v>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13.2230453319555</v>
+        <v>13.2</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>0.4382716049382716</v>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>20.43081090444405</v>
+        <v>20.4</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>0.3024691358024691</v>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>20.86453133139527</v>
+        <v>20.9</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>0.3024691358024691</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>34.56973168918699</v>
+        <v>34.6</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>0.4197530864197531</v>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="F12" s="4" t="n">
-        <v>33.90210290885116</v>
+        <v>33.9</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>0.9506172839506173</v>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>18.6996805880935</v>
+        <v>18.7</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>0.2469135802469136</v>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>15.28337037528262</v>
+        <v>15.3</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>0.3641975308641975</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>29.93946618525116</v>
+        <v>29.9</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0.5432098765432098</v>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>23.75966516343387</v>
+        <v>23.8</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>0.2839506172839506</v>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>30.99741325634199</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>0.6790123456790124</v>
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.593907796448841</v>
+        <v>5.6</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>0.02469135802469136</v>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="F19" s="4" t="n">
-        <v>42.78861944200444</v>
+        <v>42.8</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.9876543209876543</v>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10.17384327758789</v>
+        <v>10.2</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>0.1481481481481481</v>
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>29.41315870843797</v>
+        <v>29.4</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>0.6419753086419753</v>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>40.24805277693721</v>
+        <v>40.2</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>0.8641975308641975</v>
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>13.63886767012121</v>
+        <v>13.6</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>0.2345679012345679</v>
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>21.67555360550726</v>
+        <v>21.7</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>0.5740740740740741</v>
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>20.86290341955985</v>
+        <v>20.9</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>0.4567901234567901</v>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="F26" s="4" t="n">
-        <v>34.14563177543859</v>
+        <v>34.1</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0.9629629629629629</v>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>23.70256593841173</v>
+        <v>23.7</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>0.8271604938271605</v>
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>19.26937060388013</v>
+        <v>19.3</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>0.1358024691358025</v>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>19.0648506598169</v>
+        <v>19.1</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>0.4753086419753086</v>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>17.21049410169909</v>
+        <v>17.2</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>0.3641975308641975</v>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F32" s="4" t="n">
-        <v>35.33519172065117</v>
+        <v>35.3</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>0.9135802469135802</v>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>27.89786305330233</v>
+        <v>27.9</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>0.654320987654321</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>24.0005025038065</v>
+        <v>24</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>0.1666666666666667</v>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>28.24711295463335</v>
+        <v>28.2</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>0.7160493827160493</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>24.96138580222803</v>
+        <v>25</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>0.4753086419753086</v>
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>31.79643830254852</v>
+        <v>31.8</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>0.7592592592592593</v>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>17.75890841744057</v>
+        <v>17.8</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>0.5061728395061729</v>
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>12.83433665288848</v>
+        <v>12.8</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>0.2654320987654321</v>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>16.69421487033801</v>
+        <v>16.7</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>0.08641975308641975</v>
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>19.23140223940537</v>
+        <v>19.2</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>0.191358024691358</v>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="F42" s="4" t="n">
-        <v>31.39330932215192</v>
+        <v>31.4</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>0.9012345679012346</v>
@@ -1914,7 +1914,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>23.4223818925553</v>
+        <v>23.4</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>0.3950617283950617</v>
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>17.44494681464275</v>
+        <v>17.4</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>0.3271604938271605</v>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>29.04859242946699</v>
+        <v>29</v>
       </c>
       <c r="G45" s="3" t="n">
         <v>0.7592592592592593</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>19.21184123973284</v>
+        <v>19.2</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>0.191358024691358</v>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>14.45641192395267</v>
+        <v>14.5</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>0.2098765432098765</v>
@@ -2059,7 +2059,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>27.43958713977021</v>
+        <v>27.4</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>0.6111111111111112</v>
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>20.24066561257831</v>
+        <v>20.2</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>0.6296296296296297</v>
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>23.29560573337043</v>
+        <v>23.3</v>
       </c>
       <c r="G50" s="3" t="n">
         <v>0.7777777777777778</v>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>32.94950752575451</v>
+        <v>32.9</v>
       </c>
       <c r="G51" s="3" t="n">
         <v>0.8271604938271605</v>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="F52" s="4" t="n">
-        <v>38.90138768847513</v>
+        <v>38.9</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>0.9753086419753086</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>19.52869336707685</v>
+        <v>19.5</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>0.1666666666666667</v>
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>33.12438530701471</v>
+        <v>33.1</v>
       </c>
       <c r="G54" s="3" t="n">
         <v>0.8271604938271605</v>
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>21.87833111045283</v>
+        <v>21.9</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>0.04938271604938271</v>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>21.58996082843635</v>
+        <v>21.6</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>0.4382716049382716</v>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="F57" s="4" t="n">
-        <v>28.06230509370551</v>
+        <v>28.1</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>0.9259259259259259</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>20.62285038708366</v>
+        <v>20.6</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>0.6111111111111112</v>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>20.14630068784886</v>
+        <v>20.1</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>0.5432098765432098</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>28.06519567828159</v>
+        <v>28.1</v>
       </c>
       <c r="G60" s="3" t="n">
         <v>0.7901234567901234</v>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>12.97336550788604</v>
+        <v>13</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>0.03703703703703703</v>
@@ -2465,7 +2465,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>25.60880610932615</v>
+        <v>25.6</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>0.5432098765432098</v>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>21.19177002276982</v>
+        <v>21.2</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>0.3641975308641975</v>
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>41.20647963576499</v>
+        <v>41.2</v>
       </c>
       <c r="G64" s="3" t="n">
         <v>0.7407407407407407</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>16.55928264045379</v>
+        <v>16.6</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>0.3271604938271605</v>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>14.0821572280043</v>
+        <v>14.1</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>0.2654320987654321</v>
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>23.53912263959621</v>
+        <v>23.5</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>0.3641975308641975</v>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>28.46015086210314</v>
+        <v>28.5</v>
       </c>
       <c r="G68" s="3" t="n">
         <v>0.8827160493827161</v>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>30.89394613243229</v>
+        <v>30.9</v>
       </c>
       <c r="G69" s="3" t="n">
         <v>0.7160493827160493</v>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>27.15492051723392</v>
+        <v>27.2</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>0.5925925925925926</v>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>24.14289769023676</v>
+        <v>24.1</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>0.5740740740740741</v>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="F72" s="2" t="n">
-        <v>23.08997507162981</v>
+        <v>23.1</v>
       </c>
       <c r="G72" s="3" t="n">
         <v>0.7160493827160493</v>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="F73" s="4" t="n">
-        <v>24.53843993290871</v>
+        <v>24.5</v>
       </c>
       <c r="G73" s="5" t="n">
         <v>0.9382716049382716</v>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>21.71108721149588</v>
+        <v>21.7</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>0.5061728395061729</v>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>22.59185312654694</v>
+        <v>22.6</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>0.2222222222222222</v>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>13.74652505867919</v>
+        <v>13.7</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>0.06172839506172839</v>
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="F77" s="4" t="n">
-        <v>33.77130610644006</v>
+        <v>33.8</v>
       </c>
       <c r="G77" s="5" t="n">
         <v>1</v>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>14.95041167150943</v>
+        <v>15</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>0.08641975308641975</v>
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>22.6229663401211</v>
+        <v>22.6</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>0.6790123456790124</v>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>22.74045651564314</v>
+        <v>22.7</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>0.4074074074074074</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="F81" s="2" t="n">
-        <v>29.30512809927226</v>
+        <v>29.3</v>
       </c>
       <c r="G81" s="3" t="n">
         <v>0.8271604938271605</v>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>10.3414865390159</v>
+        <v>10.3</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>0.1111111111111111</v>
